--- a/data_gini.xlsx
+++ b/data_gini.xlsx
@@ -501,13 +501,13 @@
         <v>42.4</v>
       </c>
       <c r="F2">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="G2">
-        <v>42.2</v>
+        <v>42.5</v>
       </c>
       <c r="H2">
-        <v>42.2</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -524,16 +524,16 @@
         <v>42.1</v>
       </c>
       <c r="E3">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="F3">
-        <v>42.5</v>
+        <v>42.8</v>
       </c>
       <c r="G3">
-        <v>42.6</v>
+        <v>43.3</v>
       </c>
       <c r="H3">
-        <v>42.8</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -550,16 +550,16 @@
         <v>51.6</v>
       </c>
       <c r="E4">
-        <v>51.7</v>
+        <v>50.3</v>
       </c>
       <c r="F4">
-        <v>51.7</v>
+        <v>50.2</v>
       </c>
       <c r="G4">
-        <v>51.7</v>
+        <v>50.2</v>
       </c>
       <c r="H4">
-        <v>51.6</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -576,16 +576,16 @@
         <v>43</v>
       </c>
       <c r="E5">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="F5">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -602,16 +602,16 @@
         <v>53.9</v>
       </c>
       <c r="E6">
+        <v>54.4</v>
+      </c>
+      <c r="F6">
+        <v>54.2</v>
+      </c>
+      <c r="G6">
         <v>54.1</v>
       </c>
-      <c r="F6">
-        <v>54.1</v>
-      </c>
-      <c r="G6">
-        <v>54</v>
-      </c>
       <c r="H6">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -631,13 +631,13 @@
         <v>45.8</v>
       </c>
       <c r="F7">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="G7">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="H7">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -654,16 +654,16 @@
         <v>38.4</v>
       </c>
       <c r="E8">
-        <v>38.2</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="G8">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="H8">
-        <v>38.4</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -686,10 +686,10 @@
         <v>45.2</v>
       </c>
       <c r="G9">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="H9">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -703,16 +703,16 @@
         <v>45.2</v>
       </c>
       <c r="E10">
+        <v>45.4</v>
+      </c>
+      <c r="F10">
         <v>45.7</v>
-      </c>
-      <c r="F10">
-        <v>45.8</v>
       </c>
       <c r="G10">
         <v>46.1</v>
       </c>
       <c r="H10">
-        <v>46.2</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -726,16 +726,16 @@
         <v>46.8</v>
       </c>
       <c r="E11">
-        <v>47.1</v>
+        <v>45.7</v>
       </c>
       <c r="F11">
-        <v>47.1</v>
+        <v>45.4</v>
       </c>
       <c r="G11">
-        <v>47.1</v>
+        <v>45.5</v>
       </c>
       <c r="H11">
-        <v>47.1</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -745,24 +745,6 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
-        <v>49.9</v>
-      </c>
-      <c r="D12">
-        <v>49.8</v>
-      </c>
-      <c r="E12">
-        <v>49.9</v>
-      </c>
-      <c r="F12">
-        <v>49.9</v>
-      </c>
-      <c r="G12">
-        <v>49.9</v>
-      </c>
-      <c r="H12">
-        <v>49.9</v>
-      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -804,16 +786,16 @@
         <v>48.8</v>
       </c>
       <c r="E14">
-        <v>49.1</v>
+        <v>49.4</v>
       </c>
       <c r="F14">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="G14">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="H14">
-        <v>48.8</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -827,16 +809,16 @@
         <v>48.9</v>
       </c>
       <c r="E15">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F15">
+        <v>49.7</v>
+      </c>
+      <c r="G15">
         <v>49.8</v>
       </c>
-      <c r="G15">
-        <v>49.9</v>
-      </c>
       <c r="H15">
-        <v>50</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -853,16 +835,16 @@
         <v>40.7</v>
       </c>
       <c r="E16">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="F16">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="G16">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -873,22 +855,22 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="D17">
-        <v>44.4</v>
+        <v>44.2</v>
       </c>
       <c r="E17">
-        <v>43.9</v>
+        <v>44.2</v>
       </c>
       <c r="F17">
-        <v>43.9</v>
+        <v>44.5</v>
       </c>
       <c r="G17">
-        <v>43.9</v>
+        <v>44.7</v>
       </c>
       <c r="H17">
-        <v>43.9</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -905,16 +887,16 @@
         <v>39.8</v>
       </c>
       <c r="E18">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>40.4</v>
       </c>
       <c r="H18">
-        <v>40.1</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -931,16 +913,16 @@
         <v>40.9</v>
       </c>
       <c r="E19">
-        <v>40.7</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>40.8</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="H19">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
     </row>
   </sheetData>

--- a/data_gini.xlsx
+++ b/data_gini.xlsx
@@ -507,7 +507,7 @@
         <v>42.5</v>
       </c>
       <c r="H2">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -598,9 +598,6 @@
       <c r="C6">
         <v>54.8</v>
       </c>
-      <c r="D6">
-        <v>53.9</v>
-      </c>
       <c r="E6">
         <v>54.4</v>
       </c>
@@ -745,6 +742,24 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
+      <c r="C12">
+        <v>49.8</v>
+      </c>
+      <c r="D12">
+        <v>49.8</v>
+      </c>
+      <c r="E12">
+        <v>49.1</v>
+      </c>
+      <c r="F12">
+        <v>49.1</v>
+      </c>
+      <c r="G12">
+        <v>49.1</v>
+      </c>
+      <c r="H12">
+        <v>49.1</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -756,20 +771,17 @@
       <c r="C13">
         <v>43.5</v>
       </c>
-      <c r="D13">
-        <v>43.5</v>
-      </c>
       <c r="E13">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
       <c r="F13">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
       <c r="G13">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
       <c r="H13">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/data_gini.xlsx
+++ b/data_gini.xlsx
@@ -28,10 +28,10 @@
     <t>2023</t>
   </si>
   <si>
-    <t>2024e</t>
-  </si>
-  <si>
-    <t>2025f</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025e</t>
   </si>
   <si>
     <t>2026f</t>
